--- a/Matriz Estimacion/Estimación alto nivel.xlsx
+++ b/Matriz Estimacion/Estimación alto nivel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LPM\ProyectoCore_EVOL\Matriz Estimacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto KADABRA\Matriz Estimacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2473A113-E84A-4F08-8235-9F1FDEA3D554}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Artefactos IOP" sheetId="1" r:id="rId1"/>
@@ -21,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Anteproyecto!$A$7:$Q$57</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Marcelo Meza Vargas</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="74">
   <si>
     <t xml:space="preserve">Artefactos Funcionales </t>
   </si>
@@ -272,9 +271,6 @@
     <t>Total + Riesgo con IOP</t>
   </si>
   <si>
-    <t>5 Total</t>
-  </si>
-  <si>
     <t>Costo por fase</t>
   </si>
   <si>
@@ -283,12 +279,30 @@
   <si>
     <t>Total Juntos por AFP con IOP</t>
   </si>
+  <si>
+    <t>Total Solos (Dolares)</t>
+  </si>
+  <si>
+    <t>Total Integra juntos (Dolares)</t>
+  </si>
+  <si>
+    <t>Recursos totales</t>
+  </si>
+  <si>
+    <t>Costo/Hora</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Etapas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +360,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,14 +407,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -430,36 +453,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -519,18 +518,11 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -552,29 +544,17 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="49">
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <sz val="8"/>
@@ -723,6 +703,11 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <sz val="8"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
@@ -795,7 +780,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -826,16 +811,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1800" b="1"/>
               <a:t>Costo Core sin</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-PE" baseline="0"/>
+              <a:rPr lang="es-PE" sz="1800" b="1" baseline="0"/>
               <a:t> IOP</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43512578427361454"/>
+          <c:y val="2.4444677556417643E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -935,6 +928,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1063,6 +1057,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1191,6 +1186,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1385,6 +1381,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1454,7 +1451,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1491,6 +1488,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1532,7 +1530,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$P$3</c:f>
+              <c:f>Resumen!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1590,6 +1588,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1630,7 +1629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$P$4:$P$7</c:f>
+              <c:f>Resumen!$Q$4:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1660,7 +1659,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$Q$3</c:f>
+              <c:f>Resumen!$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1718,6 +1717,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1758,7 +1758,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$Q$4:$Q$7</c:f>
+              <c:f>Resumen!$S$4:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1788,7 +1788,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$R$3</c:f>
+              <c:f>Resumen!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1846,6 +1846,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1886,7 +1887,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$R$4:$R$7</c:f>
+              <c:f>Resumen!$T$4:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2041,6 +2042,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3197,16 +3199,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>890426</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>144802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>625012</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>42810</xdr:rowOff>
+      <xdr:rowOff>25686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3233,13 +3235,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>895349</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>53512</xdr:rowOff>
@@ -3271,7 +3273,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Marcelo Meza Vargas" refreshedDate="43341.390598958336" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="51" xr:uid="{00000000-000A-0000-FFFF-FFFFCF000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcelo Meza Vargas" refreshedDate="43341.390598958336" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:Q61" sheet="Anteproyecto"/>
   </cacheSource>
@@ -4284,7 +4286,276 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="TablaDinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A36:C41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="10">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="7"/>
+        <item h="1" sd="0" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Suma de Dolares sin  IOP" fld="14" baseField="0" baseItem="1"/>
+    <dataField name="Suma de Dolares Con IOP" fld="15" baseField="0" baseItem="1"/>
+  </dataFields>
+  <formats count="24">
+    <format dxfId="23">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="2" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="2" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="2" count="3">
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -4388,285 +4659,6 @@
     <dataField name="Suma de HH con IOP" fld="13" baseField="1" baseItem="1"/>
   </dataFields>
   <formats count="25">
-    <format dxfId="24">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0" selected="0"/>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="2" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="2" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="4">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="3">
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A36:C41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="10">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" m="1" x="8"/>
-        <item sd="0" m="1" x="6"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="7"/>
-        <item h="1" sd="0" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Suma de Dolares sin  IOP" fld="14" baseField="0" baseItem="1"/>
-    <dataField name="Suma de Dolares Con IOP" fld="15" baseField="0" baseItem="1"/>
-  </dataFields>
-  <formats count="24">
     <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -4823,6 +4815,16 @@
             <x v="8"/>
             <x v="9"/>
             <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5102,79 +5104,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -5185,36 +5187,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q57"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="8" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="6"/>
+    <col min="18" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D2" s="10" t="s">
         <v>48</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D3" s="10" t="s">
         <v>50</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D4" s="10" t="s">
         <v>49</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>51</v>
       </c>
@@ -5258,7 +5260,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F6" s="1"/>
       <c r="G6" s="3">
         <v>176</v>
@@ -5269,7 +5271,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
@@ -5376,7 +5378,7 @@
         <v>67832.470588235301</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>67832.470588235301</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
@@ -5490,7 +5492,7 @@
         <v>67832.470588235301</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>48</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>67832.470588235301</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>56527.058823529413</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>48</v>
       </c>
@@ -5661,7 +5663,7 @@
         <v>56527.058823529413</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>56527.058823529413</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>56527.058823529413</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
@@ -5832,7 +5834,7 @@
         <v>45221.647058823532</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>45221.647058823532</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>45221.647058823532</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>48</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>45221.647058823532</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>50</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>41743.058823529413</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>50</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>41743.058823529413</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>50</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>41743.058823529413</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>41743.058823529413</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>50</v>
       </c>
@@ -6288,7 +6290,7 @@
         <v>62614.588235294126</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>50</v>
       </c>
@@ -6345,7 +6347,7 @@
         <v>62614.588235294126</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>50</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>73050.352941176461</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>73050.352941176461</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>50</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>41743.058823529413</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>50</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>41743.058823529413</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>50</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>52178.823529411769</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>50</v>
       </c>
@@ -6687,7 +6689,7 @@
         <v>52178.823529411769</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>50</v>
       </c>
@@ -6744,7 +6746,7 @@
         <v>52178.823529411769</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>50</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>52178.823529411769</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>50</v>
       </c>
@@ -6858,7 +6860,7 @@
         <v>62614.588235294126</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>50</v>
       </c>
@@ -6915,7 +6917,7 @@
         <v>62614.588235294126</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>50</v>
       </c>
@@ -6972,7 +6974,7 @@
         <v>286238.11764705885</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>50</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>286238.11764705885</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>50</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>286238.11764705885</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>50</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>286238.11764705885</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>49</v>
       </c>
@@ -7200,7 +7202,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>49</v>
       </c>
@@ -7428,7 +7430,7 @@
         <v>18552.470588235294</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>49</v>
       </c>
@@ -7485,7 +7487,7 @@
         <v>18552.470588235294</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>18552.470588235294</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>18552.470588235294</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>49</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="50" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
@@ -7770,7 +7772,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>13914.352941176472</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>49</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>55657.411764705888</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>49</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>83486.117647058825</v>
       </c>
     </row>
-    <row r="54" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>49</v>
       </c>
@@ -7998,7 +8000,7 @@
         <v>111314.82352941178</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>49</v>
       </c>
@@ -8055,7 +8057,7 @@
         <v>111314.82352941178</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>51</v>
       </c>
@@ -8112,7 +8114,7 @@
         <v>23853.176470588238</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
         <v>51</v>
       </c>
@@ -8177,71 +8179,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="16"/>
+    <col min="7" max="7" width="4.5546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.5546875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="26">
+      <c r="L1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="25">
         <v>80</v>
       </c>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="Q1" s="16">
-        <f>ROWS(E4:E7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G2" s="16">
+      <c r="P1" s="3"/>
+      <c r="S1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="26">
         <v>40</v>
       </c>
       <c r="L2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="28">
         <v>3.4</v>
       </c>
-      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+      <c r="S2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="28">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -8251,50 +8265,56 @@
       <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>48</v>
       </c>
@@ -8304,62 +8324,67 @@
       <c r="C4" s="16">
         <v>28828.799999999996</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <f>+B4</f>
         <v>41183.999999999993</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="33">
         <v>0.2</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="26">
         <f>+$G$2*G4</f>
         <v>8</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <f>+F4/176/H4</f>
         <v>29.249999999999996</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <f>+H4*176*I4*$M$1/$M$2</f>
         <v>969035.29411764699</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <v>0.4</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="26">
         <f>+J4*K4+J4</f>
         <v>1356649.4117647058</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="26">
         <f>+L4/2</f>
         <v>678324.70588235289</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="23">
+      <c r="O4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="23">
         <f>C4</f>
         <v>28828.799999999996</v>
       </c>
-      <c r="P4" s="28">
+      <c r="Q4" s="26">
         <f>0.7*J4+L11</f>
         <v>871684.5176470587</v>
       </c>
-      <c r="Q4" s="28">
-        <f>P4*K4+P4</f>
+      <c r="R4" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="26">
+        <f>Q4*K4+Q4</f>
         <v>1220358.3247058822</v>
       </c>
-      <c r="R4" s="28">
-        <f>Q4/2</f>
+      <c r="T4" s="26">
+        <f>S4/2</f>
         <v>610179.16235294112</v>
       </c>
-      <c r="S4" s="16">
+      <c r="U4" s="16">
         <f>+F4*(1-$M$9/100)</f>
         <v>16867.316540212443</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>50</v>
       </c>
@@ -8369,62 +8394,67 @@
       <c r="C5" s="16">
         <v>85029.119999999995</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <f>+B5</f>
         <v>112780.79999999999</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="33">
         <v>0.5</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <f t="shared" ref="H5:H7" si="0">+$G$2*G5</f>
         <v>20</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <f>+F5/176/H5</f>
         <v>32.04</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <f t="shared" ref="J5:J7" si="1">+H5*176*I5*$M$1/$M$2</f>
         <v>2653665.8823529412</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="35">
         <v>0.1</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <f t="shared" ref="L5:L7" si="2">+J5*K5+J5</f>
         <v>2919032.4705882352</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <f t="shared" ref="M5:M7" si="3">+L5/2</f>
         <v>1459516.2352941176</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="23">
-        <f t="shared" ref="O5:O7" si="4">C5</f>
+      <c r="O5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="23">
+        <f t="shared" ref="P5:P7" si="4">C5</f>
         <v>85029.119999999995</v>
       </c>
-      <c r="P5" s="28">
+      <c r="Q5" s="26">
         <f>0.7*J5+L12</f>
         <v>1857566.1176470588</v>
       </c>
-      <c r="Q5" s="28">
-        <f t="shared" ref="Q5:Q7" si="5">P5*K5+P5</f>
+      <c r="R5" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="S5" s="26">
+        <f>Q5*K5+Q5</f>
         <v>2043322.7294117648</v>
       </c>
-      <c r="R5" s="28">
-        <f t="shared" ref="R5:R7" si="6">Q5/2</f>
+      <c r="T5" s="26">
+        <f t="shared" ref="T5:T7" si="5">S5/2</f>
         <v>1021661.3647058824</v>
       </c>
-      <c r="S5" s="16">
-        <f t="shared" ref="S5:S7" si="7">+F5*(1-$M$9/100)</f>
+      <c r="U5" s="16">
+        <f>+F5*(1-$M$9/100)</f>
         <v>46190.497602427924</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>49</v>
       </c>
@@ -8434,62 +8464,67 @@
       <c r="C6" s="16">
         <v>23260.16</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <f>+B6</f>
         <v>29075.200000000004</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="33">
         <v>0.2</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I6" s="28">
-        <f t="shared" ref="I6:I7" si="8">+F6/176/H6</f>
+      <c r="I6" s="26">
+        <f t="shared" ref="I6:I7" si="6">+F6/176/H6</f>
         <v>20.650000000000002</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <f t="shared" si="1"/>
         <v>684122.35294117662</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <v>0.2</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <f t="shared" si="2"/>
         <v>820946.82352941192</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="26">
         <f t="shared" si="3"/>
         <v>410473.41176470596</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="23">
+      <c r="O6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="23">
         <f t="shared" si="4"/>
         <v>23260.16</v>
       </c>
-      <c r="P6" s="28">
+      <c r="Q6" s="26">
         <f>0.7*J6+L13</f>
         <v>478885.64705882361</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="R6" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="26">
+        <f t="shared" ref="S6:S7" si="7">Q6*K6+Q6</f>
+        <v>574662.77647058829</v>
+      </c>
+      <c r="T6" s="26">
         <f t="shared" si="5"/>
-        <v>574662.77647058829</v>
-      </c>
-      <c r="R6" s="28">
-        <f t="shared" si="6"/>
         <v>287331.38823529414</v>
       </c>
-      <c r="S6" s="16">
-        <f t="shared" si="7"/>
+      <c r="U6" s="16">
+        <f t="shared" ref="U6:U7" si="8">+F6*(1-$M$9/100)</f>
         <v>11908.037147192721</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
@@ -8499,62 +8534,67 @@
       <c r="C7" s="16">
         <v>2027.52</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <f>+B7</f>
         <v>2534.4</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="33">
         <v>0.1</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I7" s="28">
-        <f t="shared" si="8"/>
+      <c r="I7" s="26">
+        <f t="shared" si="6"/>
         <v>3.6</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <f t="shared" si="1"/>
         <v>59632.941176470587</v>
       </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="28">
+      <c r="K7" s="35">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
         <f t="shared" si="2"/>
         <v>59632.941176470587</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="26">
         <f t="shared" si="3"/>
         <v>29816.470588235294</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="23">
+      <c r="O7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="23">
         <f t="shared" si="4"/>
         <v>2027.52</v>
       </c>
-      <c r="P7" s="28">
+      <c r="Q7" s="26">
         <f>0.7*J7+L14</f>
         <v>41743.058823529405</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="R7" s="35">
+        <v>0</v>
+      </c>
+      <c r="S7" s="26">
+        <f t="shared" si="7"/>
+        <v>41743.058823529405</v>
+      </c>
+      <c r="T7" s="26">
         <f t="shared" si="5"/>
-        <v>41743.058823529405</v>
-      </c>
-      <c r="R7" s="28">
-        <f t="shared" si="6"/>
         <v>20871.529411764703</v>
       </c>
-      <c r="S7" s="16">
-        <f t="shared" si="7"/>
+      <c r="U7" s="16">
+        <f t="shared" si="8"/>
         <v>1037.9887101669199</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -8564,45 +8604,47 @@
       <c r="C8" s="16">
         <v>139145.59999999998</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29">
+      <c r="E8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="27">
         <f>SUM(F4:F7)</f>
         <v>185574.39999999999</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="29">
+      <c r="J8" s="27">
         <f>SUM(J4:J7)</f>
         <v>4366456.4705882352</v>
       </c>
       <c r="K8" s="22"/>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <f>SUM(L4:L7)</f>
         <v>5156261.6470588231</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <f>SUM(M4:M7)</f>
         <v>2578130.8235294116</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29">
-        <f>SUM(P4:P7)</f>
+      <c r="O8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27">
+        <f>SUM(Q4:Q7)</f>
         <v>3249879.3411764707</v>
       </c>
-      <c r="Q8" s="29">
-        <f>SUM(Q4:Q7)</f>
+      <c r="S8" s="27">
+        <f>SUM(S4:S7)</f>
         <v>3880086.8894117652</v>
       </c>
-      <c r="R8" s="29">
-        <f>SUM(R4:R7)</f>
+      <c r="T8" s="27">
+        <f>SUM(T4:T7)</f>
         <v>1940043.4447058826</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -8615,7 +8657,7 @@
         <v>59.044006069802727</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -8623,29 +8665,29 @@
         <f>40*176*36</f>
         <v>253440</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="28">
+      <c r="K10" s="36"/>
+      <c r="L10" s="26">
         <f>+L9/2</f>
         <v>773439.24705882347</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="J11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="28">
+      <c r="J11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="26">
         <f>L10/ROWS(E4:E7)</f>
         <v>193359.81176470587</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -8654,122 +8696,152 @@
         <v>185574.39999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G33" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="38">
+        <f>+J8</f>
+        <v>4366456.4705882352</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R33" s="37"/>
+      <c r="S33" s="38">
+        <f>+Q8</f>
+        <v>3249879.3411764707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G34" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="38">
+        <f>+M8</f>
+        <v>2578130.8235294116</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="37"/>
+      <c r="S34" s="38">
+        <f>+T8</f>
+        <v>1940043.4447058826</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>27</v>
       </c>
@@ -8780,7 +8852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>48</v>
       </c>
@@ -8791,7 +8863,7 @@
         <v>678324.70588235278</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>50</v>
       </c>
@@ -8802,7 +8874,7 @@
         <v>2000685.1764705882</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>49</v>
       </c>
@@ -8813,7 +8885,7 @@
         <v>547297.88235294132</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>51</v>
       </c>
@@ -8824,7 +8896,7 @@
         <v>47706.352941176476</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>28</v>
       </c>
@@ -8835,96 +8907,95 @@
         <v>3274014.1176470583</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N3:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -8933,12 +9004,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7275D9E-2FBB-472A-8052-15663B540337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
